--- a/app/static/opinions/137671791.xlsx
+++ b/app/static/opinions/137671791.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
   <si>
     <t>opinion_id</t>
   </si>
@@ -82,12 +82,6 @@
     <t>16803992</t>
   </si>
   <si>
-    <t>17113481</t>
-  </si>
-  <si>
-    <t>16624355</t>
-  </si>
-  <si>
     <t>v...v</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>k...e</t>
   </si>
   <si>
-    <t>c...k</t>
-  </si>
-  <si>
     <t>Polecam</t>
   </si>
   <si>
@@ -163,12 +154,6 @@
     <t>2022-11-29 08:33:17</t>
   </si>
   <si>
-    <t>2023-02-07 13:03:12</t>
-  </si>
-  <si>
-    <t>2022-10-12 19:27:29</t>
-  </si>
-  <si>
     <t>2022-11-22 08:05:11</t>
   </si>
   <si>
@@ -199,18 +184,9 @@
     <t>2022-11-04 12:03:11</t>
   </si>
   <si>
-    <t>2023-01-30 21:05:15</t>
-  </si>
-  <si>
-    <t>2022-09-12 13:49:04</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Kupiłam drugą taką samą. Poprzednia 11 lat bez awarii. Polecam 100%</t>
   </si>
   <si>
@@ -236,12 +212,6 @@
   </si>
   <si>
     <t>Super</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>W porządku</t>
   </si>
   <si>
     <t>['efektywność', 'głośność pracy', 'ładowność', 'zużycie energii']</t>
@@ -608,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,37 +630,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -701,37 +671,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
         <v>66</v>
       </c>
-      <c r="L3" t="s">
-        <v>76</v>
-      </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -742,37 +712,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -783,37 +753,37 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
         <v>68</v>
       </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -824,37 +794,37 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -865,37 +835,37 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="M7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -906,37 +876,37 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s">
         <v>63</v>
       </c>
-      <c r="J8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" t="s">
-        <v>71</v>
-      </c>
       <c r="L8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="M8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -947,37 +917,37 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="M9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -988,37 +958,37 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1029,119 +999,37 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L11" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
